--- a/ModDropByMod.xlsx
+++ b/ModDropByMod.xlsx
@@ -461,6 +461,9 @@
     <t>0.3794</t>
   </si>
   <si>
+    <t>Lancer</t>
+  </si>
+  <si>
     <t>Infested Corpus</t>
   </si>
   <si>
@@ -488,9 +491,6 @@
     <t>0.8</t>
   </si>
   <si>
-    <t>Lancer</t>
-  </si>
-  <si>
     <t>Toxic Crawler</t>
   </si>
   <si>
@@ -581,6 +581,15 @@
     <t>Jordas Golem</t>
   </si>
   <si>
+    <t>Tusk Lancer</t>
+  </si>
+  <si>
+    <t>Tusk Butcher</t>
+  </si>
+  <si>
+    <t>Tusk Reaver</t>
+  </si>
+  <si>
     <t>Mine Osprey</t>
   </si>
   <si>
@@ -590,15 +599,6 @@
     <t>Arid Hellion</t>
   </si>
   <si>
-    <t>Tusk Lancer</t>
-  </si>
-  <si>
-    <t>Tusk Butcher</t>
-  </si>
-  <si>
-    <t>Tusk Reaver</t>
-  </si>
-  <si>
     <t>Kuva Butcher</t>
   </si>
   <si>
@@ -752,12 +752,12 @@
     <t>Scavenger Drone</t>
   </si>
   <si>
+    <t>Tusk Heavy Gunner</t>
+  </si>
+  <si>
     <t>Tusk Roller</t>
   </si>
   <si>
-    <t>Tusk Heavy Gunner</t>
-  </si>
-  <si>
     <t>Tusk Bombard</t>
   </si>
   <si>
@@ -962,12 +962,12 @@
     <t>Loyal Companion</t>
   </si>
   <si>
+    <t>Kubrow</t>
+  </si>
+  <si>
     <t>Drahk</t>
   </si>
   <si>
-    <t>Kubrow</t>
-  </si>
-  <si>
     <t>Kuva Drahk</t>
   </si>
   <si>
@@ -1295,6 +1295,9 @@
     <t>Darek Draga</t>
   </si>
   <si>
+    <t>Tusk Elite Lancer</t>
+  </si>
+  <si>
     <t>Elite Arid Lancer</t>
   </si>
   <si>
@@ -1304,9 +1307,6 @@
     <t>0.1053</t>
   </si>
   <si>
-    <t>Tusk Elite Lancer</t>
-  </si>
-  <si>
     <t>Sense Danger</t>
   </si>
   <si>
@@ -1583,15 +1583,15 @@
     <t>Guardian Derision</t>
   </si>
   <si>
+    <t>Ghost</t>
+  </si>
+  <si>
     <t>Smite Corpus</t>
   </si>
   <si>
     <t>Fusion Moa</t>
   </si>
   <si>
-    <t>Ghost</t>
-  </si>
-  <si>
     <t>Sudden Impact</t>
   </si>
   <si>
@@ -1700,12 +1700,12 @@
     <t>0.2895</t>
   </si>
   <si>
+    <t>Metal Fiber</t>
+  </si>
+  <si>
     <t>Revenge</t>
   </si>
   <si>
-    <t>Metal Fiber</t>
-  </si>
-  <si>
     <t>Dual Rounds</t>
   </si>
   <si>
@@ -1775,15 +1775,18 @@
     <t>Vital Sense</t>
   </si>
   <si>
+    <t>Savagery</t>
+  </si>
+  <si>
     <t>Toxin Resistance</t>
   </si>
   <si>
-    <t>Savagery</t>
-  </si>
-  <si>
     <t>Parallax Scope</t>
   </si>
   <si>
+    <t>Relentless Combination</t>
+  </si>
+  <si>
     <t>Serration</t>
   </si>
   <si>
@@ -1793,9 +1796,6 @@
     <t>Insulation</t>
   </si>
   <si>
-    <t>Relentless Combination</t>
-  </si>
-  <si>
     <t>Hunter Recovery</t>
   </si>
   <si>
@@ -1883,15 +1883,15 @@
     <t>Eviscerator</t>
   </si>
   <si>
+    <t>Tusk Trooper</t>
+  </si>
+  <si>
+    <t>Tusk Eviscerator</t>
+  </si>
+  <si>
     <t>Arid Eviscerator</t>
   </si>
   <si>
-    <t>Tusk Trooper</t>
-  </si>
-  <si>
-    <t>Tusk Eviscerator</t>
-  </si>
-  <si>
     <t>Kuva Eviscerator</t>
   </si>
   <si>
@@ -2369,10 +2369,10 @@
     <t>Life Strike</t>
   </si>
   <si>
+    <t>Sanctuary</t>
+  </si>
+  <si>
     <t>Ruinous Extension</t>
-  </si>
-  <si>
-    <t>Sanctuary</t>
   </si>
   <si>
     <t>Pathogen Rounds</t>
@@ -3192,37 +3192,37 @@
         <v>149</v>
       </c>
       <c r="F2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" t="s">
         <v>150</v>
       </c>
-      <c r="G2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" t="s">
         <v>152</v>
-      </c>
-      <c r="I2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" t="s">
-        <v>151</v>
       </c>
       <c r="K2" t="s">
         <v>153</v>
       </c>
       <c r="L2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N2" t="s">
         <v>154</v>
       </c>
       <c r="O2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q2" t="s">
         <v>155</v>
@@ -3237,19 +3237,19 @@
         <v>156</v>
       </c>
       <c r="U2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" t="s">
+        <v>148</v>
+      </c>
+      <c r="W2" t="s">
         <v>157</v>
       </c>
-      <c r="V2" t="s">
-        <v>151</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>158</v>
       </c>
-      <c r="X2" t="s">
-        <v>147</v>
-      </c>
       <c r="Y2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Z2" t="s">
         <v>159</v>
@@ -3318,7 +3318,7 @@
         <v>169</v>
       </c>
       <c r="AV2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AW2" t="s">
         <v>148</v>
@@ -3327,7 +3327,7 @@
         <v>170</v>
       </c>
       <c r="AY2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AZ2" t="s">
         <v>148</v>
@@ -3393,7 +3393,7 @@
         <v>147</v>
       </c>
       <c r="BU2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BV2" t="s">
         <v>179</v>
@@ -3444,7 +3444,7 @@
         <v>185</v>
       </c>
       <c r="CL2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CM2" t="s">
         <v>148</v>
@@ -3471,7 +3471,7 @@
         <v>188</v>
       </c>
       <c r="CU2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CV2" t="s">
         <v>148</v>
@@ -3492,7 +3492,7 @@
         <v>147</v>
       </c>
       <c r="DB2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="DC2" t="s">
         <v>191</v>
@@ -3519,7 +3519,7 @@
         <v>147</v>
       </c>
       <c r="DK2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="DL2" t="s">
         <v>194</v>
@@ -3620,7 +3620,7 @@
         <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
         <v>206</v>
@@ -3629,7 +3629,7 @@
         <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
         <v>208</v>
@@ -3884,7 +3884,7 @@
         <v>242</v>
       </c>
       <c r="U9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V9" t="s">
         <v>243</v>
@@ -3905,25 +3905,25 @@
         <v>147</v>
       </c>
       <c r="AB9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC9" t="s">
         <v>246</v>
       </c>
       <c r="AD9" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="AE9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF9" t="s">
         <v>247</v>
       </c>
       <c r="AG9" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="AH9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AI9" t="s">
         <v>248</v>
@@ -4074,7 +4074,7 @@
         <v>266</v>
       </c>
       <c r="O11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s">
         <v>148</v>
@@ -4328,7 +4328,7 @@
         <v>303</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
         <v>206</v>
@@ -4345,7 +4345,7 @@
         <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
         <v>306</v>
@@ -4383,7 +4383,7 @@
         <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
         <v>309</v>
@@ -4392,7 +4392,7 @@
         <v>207</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
         <v>214</v>
@@ -4484,7 +4484,7 @@
         <v>160</v>
       </c>
       <c r="AC18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AD18" t="s">
         <v>147</v>
@@ -4564,7 +4564,7 @@
         <v>242</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J19" t="s">
         <v>243</v>
@@ -4788,31 +4788,31 @@
         <v>341</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" t="s">
         <v>152</v>
       </c>
-      <c r="F23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" t="s">
-        <v>151</v>
-      </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24">
@@ -4855,7 +4855,7 @@
         <v>345</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
         <v>346</v>
@@ -4915,7 +4915,7 @@
         <v>355</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
         <v>356</v>
@@ -4929,7 +4929,7 @@
         <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
         <v>358</v>
@@ -4980,7 +4980,7 @@
         <v>363</v>
       </c>
       <c r="C32" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
         <v>166</v>
@@ -5149,28 +5149,28 @@
         <v>380</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
         <v>381</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G34" t="s">
         <v>381</v>
       </c>
       <c r="H34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J34" t="s">
         <v>381</v>
@@ -5184,7 +5184,7 @@
         <v>383</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
         <v>356</v>
@@ -5193,7 +5193,7 @@
         <v>384</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G35" t="s">
         <v>356</v>
@@ -5202,7 +5202,7 @@
         <v>385</v>
       </c>
       <c r="I35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J35" t="s">
         <v>356</v>
@@ -5286,7 +5286,7 @@
         <v>288</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F38" t="s">
         <v>147</v>
@@ -5304,7 +5304,7 @@
         <v>288</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s">
         <v>147</v>
@@ -5325,7 +5325,7 @@
         <v>169</v>
       </c>
       <c r="R38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S38" t="s">
         <v>218</v>
@@ -5379,13 +5379,13 @@
         <v>188</v>
       </c>
       <c r="AJ38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK38" t="s">
         <v>218</v>
       </c>
       <c r="AL38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM38" t="s">
         <v>147</v>
@@ -5403,7 +5403,7 @@
         <v>288</v>
       </c>
       <c r="AR38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS38" t="s">
         <v>147</v>
@@ -5656,7 +5656,7 @@
         <v>400</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
         <v>358</v>
@@ -5665,7 +5665,7 @@
         <v>401</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G43" t="s">
         <v>397</v>
@@ -5674,7 +5674,7 @@
         <v>402</v>
       </c>
       <c r="I43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J43" t="s">
         <v>212</v>
@@ -5683,7 +5683,7 @@
         <v>403</v>
       </c>
       <c r="L43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M43" t="s">
         <v>212</v>
@@ -5701,7 +5701,7 @@
         <v>404</v>
       </c>
       <c r="R43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S43" t="s">
         <v>358</v>
@@ -5710,7 +5710,7 @@
         <v>405</v>
       </c>
       <c r="U43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V43" t="s">
         <v>397</v>
@@ -5719,7 +5719,7 @@
         <v>406</v>
       </c>
       <c r="X43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y43" t="s">
         <v>397</v>
@@ -5737,7 +5737,7 @@
         <v>407</v>
       </c>
       <c r="AD43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AE43" t="s">
         <v>212</v>
@@ -6194,19 +6194,19 @@
         <v>428</v>
       </c>
       <c r="AA48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AB48" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC48" t="s">
         <v>429</v>
       </c>
-      <c r="AC48" t="s">
+      <c r="AD48" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE48" t="s">
         <v>430</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="49">
@@ -6423,7 +6423,7 @@
         <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s">
         <v>214</v>
@@ -6432,7 +6432,7 @@
         <v>452</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G56" t="s">
         <v>309</v>
@@ -6680,7 +6680,7 @@
         <v>147</v>
       </c>
       <c r="AK60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL60" t="s">
         <v>427</v>
@@ -6692,7 +6692,7 @@
         <v>166</v>
       </c>
       <c r="AO60" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AP60" t="s">
         <v>147</v>
@@ -6724,16 +6724,16 @@
         <v>296</v>
       </c>
       <c r="H61" t="s">
-        <v>461</v>
+        <v>377</v>
       </c>
       <c r="I61" t="s">
         <v>147</v>
       </c>
       <c r="J61" t="s">
-        <v>460</v>
+        <v>296</v>
       </c>
       <c r="K61" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L61" t="s">
         <v>147</v>
@@ -6742,13 +6742,13 @@
         <v>296</v>
       </c>
       <c r="N61" t="s">
-        <v>378</v>
+        <v>461</v>
       </c>
       <c r="O61" t="s">
         <v>147</v>
       </c>
       <c r="P61" t="s">
-        <v>296</v>
+        <v>460</v>
       </c>
       <c r="Q61" t="s">
         <v>379</v>
@@ -6873,7 +6873,7 @@
         <v>477</v>
       </c>
       <c r="F65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G65" t="s">
         <v>265</v>
@@ -6882,7 +6882,7 @@
         <v>478</v>
       </c>
       <c r="I65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J65" t="s">
         <v>265</v>
@@ -6959,7 +6959,7 @@
         <v>207</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
         <v>480</v>
@@ -6968,7 +6968,7 @@
         <v>481</v>
       </c>
       <c r="F66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G66" t="s">
         <v>482</v>
@@ -7274,7 +7274,7 @@
         <v>147</v>
       </c>
       <c r="G78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H78" t="s">
         <v>504</v>
@@ -7292,7 +7292,7 @@
         <v>147</v>
       </c>
       <c r="M78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79">
@@ -7335,7 +7335,7 @@
         <v>345</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
         <v>346</v>
@@ -7369,7 +7369,7 @@
         <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
         <v>147</v>
@@ -7387,7 +7387,7 @@
         <v>288</v>
       </c>
       <c r="K82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L82" t="s">
         <v>147</v>
@@ -7450,7 +7450,7 @@
         <v>288</v>
       </c>
       <c r="AF82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG82" t="s">
         <v>147</v>
@@ -7468,7 +7468,7 @@
         <v>288</v>
       </c>
       <c r="AL82" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM82" t="s">
         <v>147</v>
@@ -7521,7 +7521,7 @@
         <v>400</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D83" t="s">
         <v>516</v>
@@ -7530,7 +7530,7 @@
         <v>402</v>
       </c>
       <c r="F83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G83" t="s">
         <v>460</v>
@@ -7548,7 +7548,7 @@
         <v>403</v>
       </c>
       <c r="L83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M83" t="s">
         <v>460</v>
@@ -7557,7 +7557,7 @@
         <v>404</v>
       </c>
       <c r="O83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P83" t="s">
         <v>516</v>
@@ -7611,7 +7611,7 @@
         <v>407</v>
       </c>
       <c r="AG83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AH83" t="s">
         <v>460</v>
@@ -7675,10 +7675,10 @@
         <v>520</v>
       </c>
       <c r="F85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G85" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86">
@@ -7689,7 +7689,7 @@
         <v>401</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D86" t="s">
         <v>433</v>
@@ -7743,7 +7743,7 @@
         <v>405</v>
       </c>
       <c r="U86" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V86" t="s">
         <v>433</v>
@@ -7752,7 +7752,7 @@
         <v>406</v>
       </c>
       <c r="X86" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y86" t="s">
         <v>433</v>
@@ -7777,36 +7777,36 @@
         <v>523</v>
       </c>
       <c r="B88" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="C88" t="s">
         <v>147</v>
       </c>
       <c r="D88" t="s">
-        <v>299</v>
+        <v>166</v>
+      </c>
+      <c r="E88" t="s">
+        <v>492</v>
+      </c>
+      <c r="F88" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>524</v>
+      </c>
+      <c r="B89" t="s">
         <v>525</v>
       </c>
-      <c r="B89" t="s">
-        <v>491</v>
-      </c>
       <c r="C89" t="s">
         <v>147</v>
       </c>
       <c r="D89" t="s">
-        <v>166</v>
-      </c>
-      <c r="E89" t="s">
-        <v>492</v>
-      </c>
-      <c r="F89" t="s">
-        <v>147</v>
-      </c>
-      <c r="G89" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90">
@@ -7885,7 +7885,7 @@
         <v>534</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D91" t="s">
         <v>482</v>
@@ -8017,7 +8017,7 @@
         <v>543</v>
       </c>
       <c r="L94" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M94" t="s">
         <v>544</v>
@@ -8071,28 +8071,28 @@
         <v>266</v>
       </c>
       <c r="AD94" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AE94" t="s">
         <v>356</v>
       </c>
       <c r="AF94" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI94" t="s">
         <v>461</v>
       </c>
-      <c r="AG94" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH94" t="s">
+      <c r="AJ94" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK94" t="s">
         <v>460</v>
-      </c>
-      <c r="AI94" t="s">
-        <v>193</v>
-      </c>
-      <c r="AJ94" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK94" t="s">
-        <v>299</v>
       </c>
       <c r="AL94" t="s">
         <v>274</v>
@@ -8175,7 +8175,7 @@
         <v>546</v>
       </c>
       <c r="C95" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
         <v>296</v>
@@ -8249,7 +8249,7 @@
         <v>356</v>
       </c>
       <c r="H96" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I96" t="s">
         <v>147</v>
@@ -8321,7 +8321,7 @@
         <v>477</v>
       </c>
       <c r="F99" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G99" t="s">
         <v>265</v>
@@ -8330,7 +8330,7 @@
         <v>478</v>
       </c>
       <c r="I99" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J99" t="s">
         <v>265</v>
@@ -8358,7 +8358,7 @@
         <v>303</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D101" t="s">
         <v>358</v>
@@ -8477,22 +8477,22 @@
         <v>356</v>
       </c>
       <c r="AL102" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN102" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO102" t="s">
         <v>461</v>
       </c>
-      <c r="AM102" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN102" t="s">
+      <c r="AP102" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ102" t="s">
         <v>460</v>
-      </c>
-      <c r="AO102" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP102" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ102" t="s">
-        <v>299</v>
       </c>
       <c r="AR102" t="s">
         <v>250</v>
@@ -8607,7 +8607,7 @@
         <v>520</v>
       </c>
       <c r="F104" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G104" t="s">
         <v>561</v>
@@ -8618,130 +8618,13 @@
         <v>562</v>
       </c>
       <c r="B105" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="C105" t="s">
         <v>147</v>
       </c>
       <c r="D105" t="s">
-        <v>166</v>
-      </c>
-      <c r="E105" t="s">
-        <v>421</v>
-      </c>
-      <c r="F105" t="s">
-        <v>147</v>
-      </c>
-      <c r="G105" t="s">
-        <v>166</v>
-      </c>
-      <c r="H105" t="s">
-        <v>364</v>
-      </c>
-      <c r="I105" t="s">
-        <v>147</v>
-      </c>
-      <c r="J105" t="s">
-        <v>166</v>
-      </c>
-      <c r="K105" t="s">
-        <v>422</v>
-      </c>
-      <c r="L105" t="s">
-        <v>147</v>
-      </c>
-      <c r="M105" t="s">
-        <v>166</v>
-      </c>
-      <c r="N105" t="s">
-        <v>423</v>
-      </c>
-      <c r="O105" t="s">
-        <v>147</v>
-      </c>
-      <c r="P105" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>424</v>
-      </c>
-      <c r="R105" t="s">
-        <v>147</v>
-      </c>
-      <c r="S105" t="s">
-        <v>166</v>
-      </c>
-      <c r="T105" t="s">
-        <v>425</v>
-      </c>
-      <c r="U105" t="s">
-        <v>147</v>
-      </c>
-      <c r="V105" t="s">
-        <v>166</v>
-      </c>
-      <c r="W105" t="s">
-        <v>426</v>
-      </c>
-      <c r="X105" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA105" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB105" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC105" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD105" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE105" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF105" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG105" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH105" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI105" t="s">
-        <v>370</v>
-      </c>
-      <c r="AJ105" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK105" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL105" t="s">
-        <v>427</v>
-      </c>
-      <c r="AM105" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN105" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO105" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP105" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ105" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
@@ -8749,13 +8632,130 @@
         <v>563</v>
       </c>
       <c r="B106" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="C106" t="s">
         <v>147</v>
       </c>
       <c r="D106" t="s">
-        <v>148</v>
+        <v>166</v>
+      </c>
+      <c r="E106" t="s">
+        <v>421</v>
+      </c>
+      <c r="F106" t="s">
+        <v>147</v>
+      </c>
+      <c r="G106" t="s">
+        <v>166</v>
+      </c>
+      <c r="H106" t="s">
+        <v>364</v>
+      </c>
+      <c r="I106" t="s">
+        <v>147</v>
+      </c>
+      <c r="J106" t="s">
+        <v>166</v>
+      </c>
+      <c r="K106" t="s">
+        <v>422</v>
+      </c>
+      <c r="L106" t="s">
+        <v>147</v>
+      </c>
+      <c r="M106" t="s">
+        <v>166</v>
+      </c>
+      <c r="N106" t="s">
+        <v>423</v>
+      </c>
+      <c r="O106" t="s">
+        <v>147</v>
+      </c>
+      <c r="P106" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>424</v>
+      </c>
+      <c r="R106" t="s">
+        <v>147</v>
+      </c>
+      <c r="S106" t="s">
+        <v>166</v>
+      </c>
+      <c r="T106" t="s">
+        <v>425</v>
+      </c>
+      <c r="U106" t="s">
+        <v>147</v>
+      </c>
+      <c r="V106" t="s">
+        <v>166</v>
+      </c>
+      <c r="W106" t="s">
+        <v>426</v>
+      </c>
+      <c r="X106" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN106" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO106" t="s">
+        <v>428</v>
+      </c>
+      <c r="AP106" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ106" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="107">
@@ -8830,7 +8830,7 @@
         <v>242</v>
       </c>
       <c r="C109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D109" t="s">
         <v>381</v>
@@ -8839,7 +8839,7 @@
         <v>303</v>
       </c>
       <c r="F109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G109" t="s">
         <v>206</v>
@@ -8853,7 +8853,7 @@
         <v>570</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D110" t="s">
         <v>148</v>
@@ -8908,7 +8908,7 @@
         <v>573</v>
       </c>
       <c r="L112" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M112" t="s">
         <v>557</v>
@@ -9010,7 +9010,7 @@
         <v>214</v>
       </c>
       <c r="H115" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I115" t="s">
         <v>147</v>
@@ -9065,28 +9065,28 @@
         <v>580</v>
       </c>
       <c r="B117" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D117" t="s">
         <v>381</v>
       </c>
       <c r="E117" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G117" t="s">
         <v>381</v>
       </c>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J117" t="s">
         <v>381</v>
@@ -9115,7 +9115,7 @@
         <v>214</v>
       </c>
       <c r="H118" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I118" t="s">
         <v>147</v>
@@ -9207,13 +9207,31 @@
         <v>587</v>
       </c>
       <c r="B122" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C122" t="s">
         <v>147</v>
       </c>
       <c r="D122" t="s">
-        <v>381</v>
+        <v>343</v>
+      </c>
+      <c r="E122" t="s">
+        <v>317</v>
+      </c>
+      <c r="F122" t="s">
+        <v>147</v>
+      </c>
+      <c r="G122" t="s">
+        <v>343</v>
+      </c>
+      <c r="H122" t="s">
+        <v>318</v>
+      </c>
+      <c r="I122" t="s">
+        <v>147</v>
+      </c>
+      <c r="J122" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="123">
@@ -9221,31 +9239,13 @@
         <v>588</v>
       </c>
       <c r="B123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C123" t="s">
         <v>147</v>
       </c>
       <c r="D123" t="s">
-        <v>343</v>
-      </c>
-      <c r="E123" t="s">
-        <v>317</v>
-      </c>
-      <c r="F123" t="s">
-        <v>147</v>
-      </c>
-      <c r="G123" t="s">
-        <v>343</v>
-      </c>
-      <c r="H123" t="s">
-        <v>318</v>
-      </c>
-      <c r="I123" t="s">
-        <v>147</v>
-      </c>
-      <c r="J123" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124">
@@ -9339,7 +9339,7 @@
         <v>590</v>
       </c>
       <c r="B125" t="s">
-        <v>435</v>
+        <v>338</v>
       </c>
       <c r="C125" t="s">
         <v>147</v>
@@ -9348,90 +9348,81 @@
         <v>356</v>
       </c>
       <c r="E125" t="s">
-        <v>591</v>
+        <v>339</v>
       </c>
       <c r="F125" t="s">
         <v>147</v>
       </c>
       <c r="G125" t="s">
-        <v>299</v>
-      </c>
-      <c r="H125" t="s">
-        <v>440</v>
-      </c>
-      <c r="I125" t="s">
-        <v>265</v>
-      </c>
-      <c r="J125" t="s">
-        <v>296</v>
-      </c>
-      <c r="K125" t="s">
-        <v>441</v>
-      </c>
-      <c r="L125" t="s">
-        <v>147</v>
-      </c>
-      <c r="M125" t="s">
-        <v>296</v>
-      </c>
-      <c r="N125" t="s">
-        <v>442</v>
-      </c>
-      <c r="O125" t="s">
-        <v>147</v>
-      </c>
-      <c r="P125" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>436</v>
-      </c>
-      <c r="R125" t="s">
-        <v>147</v>
-      </c>
-      <c r="S125" t="s">
-        <v>356</v>
-      </c>
-      <c r="T125" t="s">
-        <v>437</v>
-      </c>
-      <c r="U125" t="s">
-        <v>147</v>
-      </c>
-      <c r="V125" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>591</v>
+      </c>
+      <c r="B126" t="s">
+        <v>435</v>
+      </c>
+      <c r="C126" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126" t="s">
+        <v>356</v>
+      </c>
+      <c r="E126" t="s">
         <v>592</v>
       </c>
-      <c r="B126" t="s">
-        <v>386</v>
-      </c>
-      <c r="C126" t="s">
-        <v>147</v>
-      </c>
-      <c r="D126" t="s">
-        <v>166</v>
-      </c>
-      <c r="E126" t="s">
-        <v>387</v>
-      </c>
       <c r="F126" t="s">
         <v>147</v>
       </c>
       <c r="G126" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="H126" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="I126" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="J126" t="s">
-        <v>166</v>
+        <v>296</v>
+      </c>
+      <c r="K126" t="s">
+        <v>441</v>
+      </c>
+      <c r="L126" t="s">
+        <v>147</v>
+      </c>
+      <c r="M126" t="s">
+        <v>296</v>
+      </c>
+      <c r="N126" t="s">
+        <v>442</v>
+      </c>
+      <c r="O126" t="s">
+        <v>147</v>
+      </c>
+      <c r="P126" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>436</v>
+      </c>
+      <c r="R126" t="s">
+        <v>147</v>
+      </c>
+      <c r="S126" t="s">
+        <v>356</v>
+      </c>
+      <c r="T126" t="s">
+        <v>437</v>
+      </c>
+      <c r="U126" t="s">
+        <v>147</v>
+      </c>
+      <c r="V126" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="127">
@@ -9439,22 +9430,31 @@
         <v>593</v>
       </c>
       <c r="B127" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="C127" t="s">
         <v>147</v>
       </c>
       <c r="D127" t="s">
-        <v>356</v>
+        <v>166</v>
       </c>
       <c r="E127" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="F127" t="s">
         <v>147</v>
       </c>
       <c r="G127" t="s">
-        <v>356</v>
+        <v>166</v>
+      </c>
+      <c r="H127" t="s">
+        <v>388</v>
+      </c>
+      <c r="I127" t="s">
+        <v>147</v>
+      </c>
+      <c r="J127" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="128">
@@ -9474,7 +9474,7 @@
         <v>520</v>
       </c>
       <c r="F128" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G128" t="s">
         <v>561</v>
@@ -9502,7 +9502,7 @@
         <v>355</v>
       </c>
       <c r="C130" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D130" t="s">
         <v>148</v>
@@ -9531,7 +9531,7 @@
         <v>356</v>
       </c>
       <c r="H131" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I131" t="s">
         <v>164</v>
@@ -9686,7 +9686,7 @@
         <v>288</v>
       </c>
       <c r="E135" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F135" t="s">
         <v>147</v>
@@ -9704,7 +9704,7 @@
         <v>288</v>
       </c>
       <c r="K135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L135" t="s">
         <v>147</v>
@@ -9749,7 +9749,7 @@
         <v>288</v>
       </c>
       <c r="Z135" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA135" t="s">
         <v>147</v>
@@ -9767,7 +9767,7 @@
         <v>288</v>
       </c>
       <c r="AF135" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG135" t="s">
         <v>147</v>
@@ -9820,7 +9820,7 @@
         <v>207</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D136" t="s">
         <v>208</v>
@@ -9829,7 +9829,7 @@
         <v>605</v>
       </c>
       <c r="F136" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G136" t="s">
         <v>206</v>
@@ -9939,7 +9939,7 @@
         <v>363</v>
       </c>
       <c r="C140" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D140" t="s">
         <v>296</v>
@@ -10007,7 +10007,7 @@
         <v>205</v>
       </c>
       <c r="C141" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D141" t="s">
         <v>206</v>
@@ -10016,7 +10016,7 @@
         <v>207</v>
       </c>
       <c r="F141" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G141" t="s">
         <v>208</v>
@@ -10036,37 +10036,37 @@
         <v>356</v>
       </c>
       <c r="E142" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
       <c r="F142" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G142" t="s">
         <v>356</v>
       </c>
       <c r="H142" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I142" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J142" t="s">
         <v>356</v>
       </c>
       <c r="K142" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L142" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M142" t="s">
         <v>356</v>
       </c>
       <c r="N142" t="s">
-        <v>154</v>
+        <v>385</v>
       </c>
       <c r="O142" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P142" t="s">
         <v>356</v>
@@ -10084,19 +10084,19 @@
         <v>156</v>
       </c>
       <c r="U142" t="s">
+        <v>147</v>
+      </c>
+      <c r="V142" t="s">
+        <v>356</v>
+      </c>
+      <c r="W142" t="s">
         <v>157</v>
       </c>
-      <c r="V142" t="s">
+      <c r="X142" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y142" t="s">
         <v>449</v>
-      </c>
-      <c r="W142" t="s">
-        <v>158</v>
-      </c>
-      <c r="X142" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y142" t="s">
-        <v>356</v>
       </c>
       <c r="Z142" t="s">
         <v>167</v>
@@ -10153,7 +10153,7 @@
         <v>356</v>
       </c>
       <c r="AR142" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AS142" t="s">
         <v>147</v>
@@ -10171,7 +10171,7 @@
         <v>356</v>
       </c>
       <c r="AX142" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AY142" t="s">
         <v>147</v>
@@ -10224,7 +10224,7 @@
         <v>570</v>
       </c>
       <c r="C143" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D143" t="s">
         <v>148</v>
@@ -10235,7 +10235,7 @@
         <v>613</v>
       </c>
       <c r="B144" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C144" t="s">
         <v>147</v>
@@ -10252,7 +10252,7 @@
         <v>573</v>
       </c>
       <c r="C145" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D145" t="s">
         <v>218</v>
@@ -10416,7 +10416,7 @@
         <v>546</v>
       </c>
       <c r="F149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G149" t="s">
         <v>212</v>
@@ -10543,7 +10543,7 @@
         <v>573</v>
       </c>
       <c r="C151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D151" t="s">
         <v>148</v>
@@ -10603,7 +10603,7 @@
         <v>546</v>
       </c>
       <c r="C154" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D154" t="s">
         <v>212</v>
@@ -10676,7 +10676,7 @@
         <v>303</v>
       </c>
       <c r="L156" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M156" t="s">
         <v>206</v>
@@ -10696,7 +10696,7 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F157" t="s">
         <v>147</v>
@@ -10856,7 +10856,7 @@
         <v>147</v>
       </c>
       <c r="Y159" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z159" t="s">
         <v>376</v>
@@ -10877,7 +10877,7 @@
         <v>166</v>
       </c>
       <c r="AF159" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG159" t="s">
         <v>147</v>
@@ -11007,7 +11007,7 @@
         <v>303</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D161" t="s">
         <v>358</v>
@@ -11077,49 +11077,49 @@
         <v>148</v>
       </c>
       <c r="H163" t="s">
+        <v>149</v>
+      </c>
+      <c r="I163" t="s">
+        <v>147</v>
+      </c>
+      <c r="J163" t="s">
+        <v>148</v>
+      </c>
+      <c r="K163" t="s">
         <v>646</v>
       </c>
-      <c r="I163" t="s">
-        <v>147</v>
-      </c>
-      <c r="J163" t="s">
-        <v>166</v>
-      </c>
-      <c r="K163" t="s">
-        <v>383</v>
-      </c>
       <c r="L163" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M163" t="s">
         <v>166</v>
       </c>
       <c r="N163" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O163" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P163" t="s">
         <v>166</v>
       </c>
       <c r="Q163" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R163" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S163" t="s">
         <v>166</v>
       </c>
       <c r="T163" t="s">
-        <v>154</v>
+        <v>385</v>
       </c>
       <c r="U163" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="V163" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="W163" t="s">
         <v>155</v>
@@ -11131,16 +11131,16 @@
         <v>148</v>
       </c>
       <c r="Z163" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC163" t="s">
         <v>647</v>
-      </c>
-      <c r="AA163" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB163" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC163" t="s">
-        <v>648</v>
       </c>
       <c r="AD163" t="s">
         <v>147</v>
@@ -11149,13 +11149,13 @@
         <v>166</v>
       </c>
       <c r="AF163" t="s">
-        <v>158</v>
+        <v>648</v>
       </c>
       <c r="AG163" t="s">
         <v>147</v>
       </c>
       <c r="AH163" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="AI163" t="s">
         <v>167</v>
@@ -11170,7 +11170,7 @@
         <v>242</v>
       </c>
       <c r="AM163" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN163" t="s">
         <v>243</v>
@@ -11239,7 +11239,7 @@
         <v>148</v>
       </c>
       <c r="BJ163" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BK163" t="s">
         <v>147</v>
@@ -11257,7 +11257,7 @@
         <v>148</v>
       </c>
       <c r="BP163" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BQ163" t="s">
         <v>147</v>
@@ -11428,7 +11428,7 @@
         <v>355</v>
       </c>
       <c r="C166" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D166" t="s">
         <v>288</v>
@@ -11633,7 +11633,7 @@
         <v>345</v>
       </c>
       <c r="C171" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D171" t="s">
         <v>346</v>
@@ -11647,7 +11647,7 @@
         <v>303</v>
       </c>
       <c r="C172" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D172" t="s">
         <v>358</v>
@@ -11661,7 +11661,7 @@
         <v>665</v>
       </c>
       <c r="C173" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D173" t="s">
         <v>148</v>
@@ -11758,7 +11758,7 @@
         <v>570</v>
       </c>
       <c r="C178" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D178" t="s">
         <v>356</v>
@@ -11828,10 +11828,10 @@
         <v>296</v>
       </c>
       <c r="K180" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L180" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M180" t="s">
         <v>449</v>
@@ -11846,7 +11846,7 @@
         <v>296</v>
       </c>
       <c r="Q180" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R180" t="s">
         <v>147</v>
@@ -11872,7 +11872,7 @@
         <v>573</v>
       </c>
       <c r="F181" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G181" t="s">
         <v>148</v>
@@ -11892,16 +11892,16 @@
         <v>288</v>
       </c>
       <c r="E182" t="s">
-        <v>675</v>
+        <v>248</v>
       </c>
       <c r="F182" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G182" t="s">
-        <v>676</v>
+        <v>288</v>
       </c>
       <c r="H182" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I182" t="s">
         <v>147</v>
@@ -11910,13 +11910,13 @@
         <v>288</v>
       </c>
       <c r="K182" t="s">
-        <v>249</v>
+        <v>675</v>
       </c>
       <c r="L182" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M182" t="s">
-        <v>288</v>
+        <v>676</v>
       </c>
       <c r="N182" t="s">
         <v>254</v>
@@ -11959,7 +11959,7 @@
         <v>534</v>
       </c>
       <c r="C184" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D184" t="s">
         <v>676</v>
@@ -12078,7 +12078,7 @@
         <v>207</v>
       </c>
       <c r="C188" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D188" t="s">
         <v>480</v>
@@ -12087,7 +12087,7 @@
         <v>452</v>
       </c>
       <c r="F188" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G188" t="s">
         <v>482</v>
@@ -12378,7 +12378,7 @@
         <v>214</v>
       </c>
       <c r="Z191" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AA191" t="s">
         <v>147</v>
@@ -12410,7 +12410,7 @@
         <v>148</v>
       </c>
       <c r="H192" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I192" t="s">
         <v>147</v>
@@ -12478,7 +12478,7 @@
         <v>169</v>
       </c>
       <c r="C196" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D196" t="s">
         <v>356</v>
@@ -12505,7 +12505,7 @@
         <v>188</v>
       </c>
       <c r="L196" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M196" t="s">
         <v>356</v>
@@ -12519,7 +12519,7 @@
         <v>170</v>
       </c>
       <c r="C197" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D197" t="s">
         <v>356</v>
@@ -12537,7 +12537,7 @@
         <v>185</v>
       </c>
       <c r="I197" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J197" t="s">
         <v>356</v>
@@ -12637,10 +12637,10 @@
         <v>520</v>
       </c>
       <c r="F199" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G199" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="200">
@@ -12769,7 +12769,7 @@
         <v>170</v>
       </c>
       <c r="AA202" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB202" t="s">
         <v>148</v>
@@ -12790,7 +12790,7 @@
         <v>147</v>
       </c>
       <c r="AH202" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AI202" t="s">
         <v>597</v>
@@ -12805,7 +12805,7 @@
         <v>185</v>
       </c>
       <c r="AM202" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN202" t="s">
         <v>148</v>
@@ -13046,7 +13046,7 @@
         <v>570</v>
       </c>
       <c r="C207" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D207" t="s">
         <v>288</v>
@@ -13110,7 +13110,7 @@
         <v>706</v>
       </c>
       <c r="C209" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D209" t="s">
         <v>257</v>
@@ -13124,7 +13124,7 @@
         <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D210" t="s">
         <v>214</v>
@@ -13133,7 +13133,7 @@
         <v>481</v>
       </c>
       <c r="F210" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G210" t="s">
         <v>309</v>
@@ -13161,7 +13161,7 @@
         <v>665</v>
       </c>
       <c r="C212" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D212" t="s">
         <v>288</v>
@@ -13202,7 +13202,7 @@
         <v>546</v>
       </c>
       <c r="L213" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M213" t="s">
         <v>181</v>
@@ -13270,7 +13270,7 @@
         <v>665</v>
       </c>
       <c r="C214" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D214" t="s">
         <v>288</v>
@@ -13322,7 +13322,7 @@
         <v>356</v>
       </c>
       <c r="E216" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F216" t="s">
         <v>147</v>
@@ -13340,7 +13340,7 @@
         <v>356</v>
       </c>
       <c r="K216" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L216" t="s">
         <v>147</v>
@@ -13412,7 +13412,7 @@
         <v>356</v>
       </c>
       <c r="AI216" t="s">
-        <v>584</v>
+        <v>189</v>
       </c>
       <c r="AJ216" t="s">
         <v>147</v>
@@ -13421,7 +13421,7 @@
         <v>356</v>
       </c>
       <c r="AL216" t="s">
-        <v>190</v>
+        <v>584</v>
       </c>
       <c r="AM216" t="s">
         <v>147</v>
@@ -13430,7 +13430,7 @@
         <v>356</v>
       </c>
       <c r="AO216" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AP216" t="s">
         <v>147</v>
@@ -13439,7 +13439,7 @@
         <v>356</v>
       </c>
       <c r="AR216" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS216" t="s">
         <v>147</v>
@@ -13515,7 +13515,7 @@
         <v>570</v>
       </c>
       <c r="C218" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D218" t="s">
         <v>288</v>
@@ -13529,7 +13529,7 @@
         <v>345</v>
       </c>
       <c r="C219" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D219" t="s">
         <v>346</v>
@@ -13717,7 +13717,7 @@
         <v>166</v>
       </c>
       <c r="Q223" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="R223" t="s">
         <v>147</v>
@@ -13732,10 +13732,10 @@
         <v>147</v>
       </c>
       <c r="V223" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W223" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X223" t="s">
         <v>147</v>
@@ -13978,7 +13978,7 @@
         <v>207</v>
       </c>
       <c r="C226" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D226" t="s">
         <v>214</v>
@@ -13987,7 +13987,7 @@
         <v>725</v>
       </c>
       <c r="F226" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G226" t="s">
         <v>309</v>
@@ -14079,7 +14079,7 @@
         <v>543</v>
       </c>
       <c r="O230" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P230" t="s">
         <v>381</v>
@@ -14088,7 +14088,7 @@
         <v>242</v>
       </c>
       <c r="R230" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S230" t="s">
         <v>381</v>
@@ -14180,13 +14180,13 @@
         <v>730</v>
       </c>
       <c r="B231" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C231" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D231" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E231" t="s">
         <v>201</v>
@@ -14201,7 +14201,7 @@
         <v>169</v>
       </c>
       <c r="I231" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J231" t="s">
         <v>148</v>
@@ -14210,10 +14210,10 @@
         <v>543</v>
       </c>
       <c r="L231" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M231" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N231" t="s">
         <v>170</v>
@@ -14237,7 +14237,7 @@
         <v>188</v>
       </c>
       <c r="U231" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V231" t="s">
         <v>148</v>
@@ -14319,7 +14319,7 @@
         <v>355</v>
       </c>
       <c r="C233" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D233" t="s">
         <v>356</v>
@@ -14330,7 +14330,7 @@
         <v>733</v>
       </c>
       <c r="B234" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C234" t="s">
         <v>147</v>
@@ -14370,7 +14370,7 @@
         <v>675</v>
       </c>
       <c r="C236" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D236" t="s">
         <v>676</v>
@@ -14453,7 +14453,7 @@
         <v>214</v>
       </c>
       <c r="Z237" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AA237" t="s">
         <v>147</v>
@@ -14470,7 +14470,7 @@
         <v>706</v>
       </c>
       <c r="C238" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D238" t="s">
         <v>257</v>
@@ -14498,7 +14498,7 @@
         <v>345</v>
       </c>
       <c r="C240" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D240" t="s">
         <v>346</v>
@@ -14689,7 +14689,7 @@
         <v>383</v>
       </c>
       <c r="C244" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D244" t="s">
         <v>166</v>
@@ -14698,7 +14698,7 @@
         <v>384</v>
       </c>
       <c r="F244" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G244" t="s">
         <v>166</v>
@@ -14707,7 +14707,7 @@
         <v>385</v>
       </c>
       <c r="I244" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J244" t="s">
         <v>166</v>
@@ -14867,7 +14867,7 @@
         <v>296</v>
       </c>
       <c r="T246" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="U246" t="s">
         <v>147</v>
@@ -14876,7 +14876,7 @@
         <v>296</v>
       </c>
       <c r="W246" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="X246" t="s">
         <v>147</v>
@@ -14926,22 +14926,22 @@
         <v>218</v>
       </c>
       <c r="H247" t="s">
+        <v>387</v>
+      </c>
+      <c r="I247" t="s">
+        <v>147</v>
+      </c>
+      <c r="J247" t="s">
+        <v>218</v>
+      </c>
+      <c r="K247" t="s">
         <v>444</v>
       </c>
-      <c r="I247" t="s">
-        <v>147</v>
-      </c>
-      <c r="J247" t="s">
+      <c r="L247" t="s">
+        <v>147</v>
+      </c>
+      <c r="M247" t="s">
         <v>265</v>
-      </c>
-      <c r="K247" t="s">
-        <v>387</v>
-      </c>
-      <c r="L247" t="s">
-        <v>147</v>
-      </c>
-      <c r="M247" t="s">
-        <v>218</v>
       </c>
       <c r="N247" t="s">
         <v>388</v>
@@ -14970,7 +14970,7 @@
         <v>665</v>
       </c>
       <c r="C248" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D248" t="s">
         <v>356</v>
@@ -15104,10 +15104,10 @@
         <v>753</v>
       </c>
       <c r="B252" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C252" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D252" t="s">
         <v>754</v>
@@ -15144,7 +15144,7 @@
         <v>355</v>
       </c>
       <c r="C254" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D254" t="s">
         <v>288</v>
@@ -15158,7 +15158,7 @@
         <v>207</v>
       </c>
       <c r="C255" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D255" t="s">
         <v>208</v>
@@ -15167,7 +15167,7 @@
         <v>725</v>
       </c>
       <c r="F255" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G255" t="s">
         <v>206</v>
@@ -15181,7 +15181,7 @@
         <v>383</v>
       </c>
       <c r="C256" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D256" t="s">
         <v>218</v>
@@ -15190,7 +15190,7 @@
         <v>384</v>
       </c>
       <c r="F256" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G256" t="s">
         <v>218</v>
@@ -15199,7 +15199,7 @@
         <v>385</v>
       </c>
       <c r="I256" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J256" t="s">
         <v>218</v>
@@ -15208,7 +15208,7 @@
         <v>401</v>
       </c>
       <c r="L256" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M256" t="s">
         <v>397</v>
@@ -15217,7 +15217,7 @@
         <v>405</v>
       </c>
       <c r="O256" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P256" t="s">
         <v>397</v>
@@ -15226,7 +15226,7 @@
         <v>406</v>
       </c>
       <c r="R256" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S256" t="s">
         <v>397</v>
@@ -15240,7 +15240,7 @@
         <v>355</v>
       </c>
       <c r="C257" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D257" t="s">
         <v>288</v>
@@ -15327,7 +15327,7 @@
         <v>363</v>
       </c>
       <c r="L260" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M260" t="s">
         <v>296</v>
@@ -15473,10 +15473,10 @@
         <v>233</v>
       </c>
       <c r="H261" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I261" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J261" t="s">
         <v>764</v>
@@ -15513,7 +15513,7 @@
         <v>477</v>
       </c>
       <c r="F263" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G263" t="s">
         <v>265</v>
@@ -15522,7 +15522,7 @@
         <v>478</v>
       </c>
       <c r="I263" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J263" t="s">
         <v>265</v>
@@ -15531,7 +15531,7 @@
         <v>170</v>
       </c>
       <c r="L263" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M263" t="s">
         <v>212</v>
@@ -15540,7 +15540,7 @@
         <v>185</v>
       </c>
       <c r="O263" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P263" t="s">
         <v>212</v>
@@ -15549,7 +15549,7 @@
         <v>266</v>
       </c>
       <c r="R263" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S263" t="s">
         <v>218</v>
@@ -15705,7 +15705,7 @@
         <v>665</v>
       </c>
       <c r="C269" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D269" t="s">
         <v>288</v>
@@ -15774,7 +15774,7 @@
         <v>170</v>
       </c>
       <c r="C272" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D272" t="s">
         <v>356</v>
@@ -15783,7 +15783,7 @@
         <v>185</v>
       </c>
       <c r="F272" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G272" t="s">
         <v>356</v>
@@ -15866,7 +15866,7 @@
         <v>265</v>
       </c>
       <c r="Z273" t="s">
-        <v>461</v>
+        <v>190</v>
       </c>
       <c r="AA273" t="s">
         <v>147</v>
@@ -15875,22 +15875,22 @@
         <v>212</v>
       </c>
       <c r="AC273" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD273" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE273" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF273" t="s">
         <v>444</v>
       </c>
-      <c r="AD273" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE273" t="s">
+      <c r="AG273" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH273" t="s">
         <v>265</v>
-      </c>
-      <c r="AF273" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG273" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH273" t="s">
-        <v>212</v>
       </c>
       <c r="AI273" t="s">
         <v>195</v>
@@ -15993,7 +15993,7 @@
         <v>218</v>
       </c>
       <c r="E275" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F275" t="s">
         <v>164</v>
@@ -16051,7 +16051,7 @@
         <v>477</v>
       </c>
       <c r="L277" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M277" t="s">
         <v>265</v>
@@ -16060,7 +16060,7 @@
         <v>478</v>
       </c>
       <c r="O277" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P277" t="s">
         <v>265</v>
@@ -16155,13 +16155,13 @@
         <v>543</v>
       </c>
       <c r="I278" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J278" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K278" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L278" t="s">
         <v>147</v>
@@ -16176,7 +16176,7 @@
         <v>147</v>
       </c>
       <c r="P278" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q278" t="s">
         <v>509</v>
@@ -16196,7 +16196,7 @@
         <v>675</v>
       </c>
       <c r="C279" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D279" t="s">
         <v>482</v>
@@ -16235,13 +16235,40 @@
         <v>785</v>
       </c>
       <c r="B282" t="s">
-        <v>546</v>
+        <v>244</v>
       </c>
       <c r="C282" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D282" t="s">
-        <v>296</v>
+        <v>288</v>
+      </c>
+      <c r="E282" t="s">
+        <v>248</v>
+      </c>
+      <c r="F282" t="s">
+        <v>147</v>
+      </c>
+      <c r="G282" t="s">
+        <v>288</v>
+      </c>
+      <c r="H282" t="s">
+        <v>249</v>
+      </c>
+      <c r="I282" t="s">
+        <v>147</v>
+      </c>
+      <c r="J282" t="s">
+        <v>288</v>
+      </c>
+      <c r="K282" t="s">
+        <v>254</v>
+      </c>
+      <c r="L282" t="s">
+        <v>147</v>
+      </c>
+      <c r="M282" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="283">
@@ -16249,40 +16276,13 @@
         <v>786</v>
       </c>
       <c r="B283" t="s">
-        <v>244</v>
+        <v>546</v>
       </c>
       <c r="C283" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D283" t="s">
-        <v>288</v>
-      </c>
-      <c r="E283" t="s">
-        <v>248</v>
-      </c>
-      <c r="F283" t="s">
-        <v>147</v>
-      </c>
-      <c r="G283" t="s">
-        <v>288</v>
-      </c>
-      <c r="H283" t="s">
-        <v>249</v>
-      </c>
-      <c r="I283" t="s">
-        <v>147</v>
-      </c>
-      <c r="J283" t="s">
-        <v>288</v>
-      </c>
-      <c r="K283" t="s">
-        <v>254</v>
-      </c>
-      <c r="L283" t="s">
-        <v>147</v>
-      </c>
-      <c r="M283" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="284">
@@ -16307,7 +16307,7 @@
         <v>355</v>
       </c>
       <c r="C285" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D285" t="s">
         <v>288</v>
@@ -16321,7 +16321,7 @@
         <v>570</v>
       </c>
       <c r="C286" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D286" t="s">
         <v>288</v>
@@ -16349,7 +16349,7 @@
         <v>706</v>
       </c>
       <c r="C288" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D288" t="s">
         <v>257</v>
@@ -16360,7 +16360,7 @@
         <v>792</v>
       </c>
       <c r="B289" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C289" t="s">
         <v>147</v>
@@ -16395,7 +16395,7 @@
         <v>534</v>
       </c>
       <c r="F290" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G290" t="s">
         <v>676</v>
@@ -16433,10 +16433,10 @@
         <v>296</v>
       </c>
       <c r="K291" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L291" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M291" t="s">
         <v>449</v>
@@ -16451,7 +16451,7 @@
         <v>296</v>
       </c>
       <c r="Q291" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R291" t="s">
         <v>147</v>
@@ -16465,28 +16465,28 @@
         <v>795</v>
       </c>
       <c r="B292" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C292" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D292" t="s">
         <v>381</v>
       </c>
       <c r="E292" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F292" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G292" t="s">
         <v>381</v>
       </c>
       <c r="H292" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I292" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J292" t="s">
         <v>381</v>
@@ -16523,7 +16523,7 @@
         <v>207</v>
       </c>
       <c r="C294" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D294" t="s">
         <v>480</v>
@@ -16532,7 +16532,7 @@
         <v>605</v>
       </c>
       <c r="F294" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G294" t="s">
         <v>482</v>
@@ -16633,7 +16633,7 @@
         <v>169</v>
       </c>
       <c r="I298" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J298" t="s">
         <v>356</v>
@@ -16642,7 +16642,7 @@
         <v>188</v>
       </c>
       <c r="L298" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M298" t="s">
         <v>356</v>
@@ -16656,7 +16656,7 @@
         <v>383</v>
       </c>
       <c r="C299" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D299" t="s">
         <v>166</v>
@@ -16674,7 +16674,7 @@
         <v>384</v>
       </c>
       <c r="I299" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J299" t="s">
         <v>166</v>
@@ -16683,7 +16683,7 @@
         <v>385</v>
       </c>
       <c r="L299" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M299" t="s">
         <v>166</v>
@@ -16788,7 +16788,7 @@
         <v>166</v>
       </c>
       <c r="AU299" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AV299" t="s">
         <v>147</v>
@@ -16802,10 +16802,10 @@
         <v>803</v>
       </c>
       <c r="B300" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C300" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D300" t="s">
         <v>804</v>
@@ -16938,7 +16938,7 @@
         <v>356</v>
       </c>
       <c r="AF302" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG302" t="s">
         <v>147</v>
@@ -17123,7 +17123,7 @@
         <v>363</v>
       </c>
       <c r="C306" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D306" t="s">
         <v>296</v>
@@ -17200,7 +17200,7 @@
         <v>546</v>
       </c>
       <c r="C307" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D307" t="s">
         <v>296</v>
@@ -17224,7 +17224,7 @@
         <v>356</v>
       </c>
       <c r="K307" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L307" t="s">
         <v>164</v>
@@ -17345,7 +17345,7 @@
         <v>665</v>
       </c>
       <c r="C309" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D309" t="s">
         <v>356</v>
@@ -17400,7 +17400,7 @@
         <v>401</v>
       </c>
       <c r="C311" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D311" t="s">
         <v>433</v>
@@ -17409,7 +17409,7 @@
         <v>405</v>
       </c>
       <c r="F311" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G311" t="s">
         <v>433</v>
@@ -17418,7 +17418,7 @@
         <v>406</v>
       </c>
       <c r="I311" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J311" t="s">
         <v>433</v>
@@ -17427,7 +17427,7 @@
         <v>675</v>
       </c>
       <c r="L311" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M311" t="s">
         <v>816</v>
@@ -17491,7 +17491,7 @@
         <v>665</v>
       </c>
       <c r="C313" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D313" t="s">
         <v>288</v>
@@ -17528,7 +17528,7 @@
         <v>207</v>
       </c>
       <c r="C315" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D315" t="s">
         <v>208</v>
@@ -17537,7 +17537,7 @@
         <v>452</v>
       </c>
       <c r="F315" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G315" t="s">
         <v>206</v>
@@ -17584,25 +17584,25 @@
         <v>270</v>
       </c>
       <c r="N316" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="O316" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="P316" t="s">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="Q316" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R316" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="S316" t="s">
         <v>166</v>
       </c>
       <c r="T316" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U316" t="s">
         <v>147</v>
@@ -17611,13 +17611,13 @@
         <v>166</v>
       </c>
       <c r="W316" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="X316" t="s">
         <v>147</v>
       </c>
       <c r="Y316" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="Z316" t="s">
         <v>254</v>
@@ -17661,7 +17661,7 @@
         <v>160</v>
       </c>
       <c r="E317" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F317" t="s">
         <v>147</v>
@@ -17714,7 +17714,7 @@
         <v>207</v>
       </c>
       <c r="C318" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D318" t="s">
         <v>208</v>
@@ -17723,7 +17723,7 @@
         <v>481</v>
       </c>
       <c r="F318" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G318" t="s">
         <v>206</v>
@@ -17746,10 +17746,10 @@
         <v>520</v>
       </c>
       <c r="F319" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G319" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="320">
@@ -17783,7 +17783,7 @@
         <v>363</v>
       </c>
       <c r="C321" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D321" t="s">
         <v>212</v>
@@ -17888,7 +17888,7 @@
         <v>400</v>
       </c>
       <c r="C324" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D324" t="s">
         <v>516</v>
@@ -17897,7 +17897,7 @@
         <v>401</v>
       </c>
       <c r="F324" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G324" t="s">
         <v>433</v>
@@ -17906,7 +17906,7 @@
         <v>402</v>
       </c>
       <c r="I324" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J324" t="s">
         <v>460</v>
@@ -17915,16 +17915,16 @@
         <v>403</v>
       </c>
       <c r="L324" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M324" t="s">
         <v>460</v>
       </c>
       <c r="N324" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O324" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P324" t="s">
         <v>449</v>
@@ -17933,7 +17933,7 @@
         <v>404</v>
       </c>
       <c r="R324" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S324" t="s">
         <v>516</v>
@@ -17942,7 +17942,7 @@
         <v>405</v>
       </c>
       <c r="U324" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V324" t="s">
         <v>433</v>
@@ -17960,7 +17960,7 @@
         <v>406</v>
       </c>
       <c r="AA324" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB324" t="s">
         <v>433</v>
@@ -17969,7 +17969,7 @@
         <v>407</v>
       </c>
       <c r="AD324" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AE324" t="s">
         <v>460</v>
@@ -18120,7 +18120,7 @@
         <v>356</v>
       </c>
       <c r="E326" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F326" t="s">
         <v>147</v>
@@ -18557,7 +18557,7 @@
         <v>148</v>
       </c>
       <c r="AC336" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AD336" t="s">
         <v>147</v>
@@ -18646,7 +18646,7 @@
         <v>205</v>
       </c>
       <c r="C337" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D337" t="s">
         <v>482</v>
@@ -18655,7 +18655,7 @@
         <v>207</v>
       </c>
       <c r="F337" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G337" t="s">
         <v>843</v>
@@ -18669,7 +18669,7 @@
         <v>345</v>
       </c>
       <c r="C338" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D338" t="s">
         <v>346</v>
@@ -18924,7 +18924,7 @@
         <v>356</v>
       </c>
       <c r="Z341" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AA341" t="s">
         <v>147</v>
@@ -18969,7 +18969,7 @@
         <v>570</v>
       </c>
       <c r="C344" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D344" t="s">
         <v>356</v>
@@ -18983,7 +18983,7 @@
         <v>207</v>
       </c>
       <c r="C345" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D345" t="s">
         <v>208</v>
@@ -18992,7 +18992,7 @@
         <v>725</v>
       </c>
       <c r="F345" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G345" t="s">
         <v>206</v>
@@ -19006,7 +19006,7 @@
         <v>345</v>
       </c>
       <c r="C346" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D346" t="s">
         <v>346</v>
@@ -19043,7 +19043,7 @@
         <v>207</v>
       </c>
       <c r="C348" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D348" t="s">
         <v>214</v>
@@ -19052,7 +19052,7 @@
         <v>605</v>
       </c>
       <c r="F348" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G348" t="s">
         <v>309</v>
@@ -19184,7 +19184,7 @@
         <v>534</v>
       </c>
       <c r="F351" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G351" t="s">
         <v>816</v>
@@ -19198,7 +19198,7 @@
         <v>345</v>
       </c>
       <c r="C352" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D352" t="s">
         <v>346</v>
@@ -19212,7 +19212,7 @@
         <v>345</v>
       </c>
       <c r="C353" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D353" t="s">
         <v>346</v>
@@ -19464,7 +19464,7 @@
         <v>865</v>
       </c>
       <c r="B359" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C359" t="s">
         <v>147</v>
@@ -19490,7 +19490,7 @@
         <v>363</v>
       </c>
       <c r="F360" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G360" t="s">
         <v>166</v>
@@ -19499,7 +19499,7 @@
         <v>266</v>
       </c>
       <c r="I360" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J360" t="s">
         <v>148</v>
@@ -19658,7 +19658,7 @@
         <v>207</v>
       </c>
       <c r="C363" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D363" t="s">
         <v>208</v>
@@ -19667,7 +19667,7 @@
         <v>452</v>
       </c>
       <c r="F363" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G363" t="s">
         <v>206</v>
@@ -19681,7 +19681,7 @@
         <v>706</v>
       </c>
       <c r="C364" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D364" t="s">
         <v>257</v>
@@ -19718,7 +19718,7 @@
         <v>400</v>
       </c>
       <c r="C366" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D366" t="s">
         <v>516</v>
@@ -19727,7 +19727,7 @@
         <v>402</v>
       </c>
       <c r="F366" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G366" t="s">
         <v>460</v>
@@ -19736,7 +19736,7 @@
         <v>403</v>
       </c>
       <c r="I366" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J366" t="s">
         <v>460</v>
@@ -19754,7 +19754,7 @@
         <v>404</v>
       </c>
       <c r="O366" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P366" t="s">
         <v>516</v>
@@ -19763,7 +19763,7 @@
         <v>266</v>
       </c>
       <c r="R366" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S366" t="s">
         <v>356</v>
@@ -19826,7 +19826,7 @@
         <v>407</v>
       </c>
       <c r="AM366" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN366" t="s">
         <v>460</v>
@@ -19863,7 +19863,7 @@
         <v>570</v>
       </c>
       <c r="C368" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D368" t="s">
         <v>288</v>
@@ -19877,7 +19877,7 @@
         <v>355</v>
       </c>
       <c r="C369" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D369" t="s">
         <v>148</v>
@@ -19905,7 +19905,7 @@
         <v>207</v>
       </c>
       <c r="C371" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D371" t="s">
         <v>480</v>
@@ -19914,7 +19914,7 @@
         <v>725</v>
       </c>
       <c r="F371" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G371" t="s">
         <v>482</v>
@@ -20020,7 +20020,7 @@
         <v>400</v>
       </c>
       <c r="C376" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D376" t="s">
         <v>516</v>
@@ -20029,7 +20029,7 @@
         <v>402</v>
       </c>
       <c r="F376" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G376" t="s">
         <v>460</v>
@@ -20038,7 +20038,7 @@
         <v>403</v>
       </c>
       <c r="I376" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J376" t="s">
         <v>460</v>
@@ -20047,7 +20047,7 @@
         <v>404</v>
       </c>
       <c r="L376" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M376" t="s">
         <v>516</v>
@@ -20056,7 +20056,7 @@
         <v>242</v>
       </c>
       <c r="O376" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P376" t="s">
         <v>381</v>
@@ -20074,7 +20074,7 @@
         <v>407</v>
       </c>
       <c r="U376" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V376" t="s">
         <v>460</v>
@@ -20102,7 +20102,7 @@
         <v>207</v>
       </c>
       <c r="C378" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D378" t="s">
         <v>208</v>
@@ -20111,7 +20111,7 @@
         <v>481</v>
       </c>
       <c r="F378" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G378" t="s">
         <v>206</v>
@@ -20125,7 +20125,7 @@
         <v>207</v>
       </c>
       <c r="C379" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D379" t="s">
         <v>208</v>
@@ -20134,7 +20134,7 @@
         <v>605</v>
       </c>
       <c r="F379" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G379" t="s">
         <v>206</v>
@@ -20148,7 +20148,7 @@
         <v>170</v>
       </c>
       <c r="C380" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D380" t="s">
         <v>212</v>
@@ -20157,7 +20157,7 @@
         <v>185</v>
       </c>
       <c r="F380" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G380" t="s">
         <v>212</v>
@@ -20203,7 +20203,7 @@
         <v>665</v>
       </c>
       <c r="C382" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D382" t="s">
         <v>148</v>
@@ -20272,10 +20272,10 @@
         <v>520</v>
       </c>
       <c r="F385" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G385" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
